--- a/20170414-megaregions/builds/development/data/_raw/megaregion_populations_rpa.xlsx
+++ b/20170414-megaregions/builds/development/data/_raw/megaregion_populations_rpa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <t>Arizona Sun Corridor</t>
@@ -2209,9 +2209,6 @@
   </si>
   <si>
     <t>megaregion</t>
-  </si>
-  <si>
-    <t>pct</t>
   </si>
   <si>
     <t>cities</t>
@@ -2220,10 +2217,10 @@
     <t>population_growth_2010_2025</t>
   </si>
   <si>
-    <t>population_2025</t>
+    <t>population_2010</t>
   </si>
   <si>
-    <t>population_2010</t>
+    <t>population_2050</t>
   </si>
 </sst>
 </file>
@@ -2305,15 +2302,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2647,251 +2643,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>5.7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="D2" s="6">
+        <f>(C2-B2) / B2</f>
+        <v>1.1578947368421053</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="D3" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>8.4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D12" si="0">(C3-B3) / B3</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>17.3</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79768786127167635</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>5.5</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85454545454545439</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>55.5</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>60.7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28468468468468461</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>13.4</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="D7" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.216</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76865671641791034</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>52.3</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>58.4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="C8" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.35372848948374763</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50714285714285723</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D10" s="3">
-        <v>21.7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.77840909090909083</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="D11" s="3">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.189</v>
-      </c>
-      <c r="F11" s="6" t="s">
+        <v>24.3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61728395061728381</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" ht="17">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>19.7</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D12" s="3">
-        <v>24.8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="C12" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93401015228426409</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
